--- a/EOBReceiveFeesFromCigna/faillist.xlsx
+++ b/EOBReceiveFeesFromCigna/faillist.xlsx
@@ -11,65 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>XINRAN</t>
-  </si>
-  <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
-    <t>201.23</t>
-  </si>
-  <si>
-    <t>760.00</t>
-  </si>
-  <si>
-    <t>05/26/2024</t>
-  </si>
-  <si>
-    <t>Cigna</t>
-  </si>
-  <si>
-    <t>02/15/2023</t>
-  </si>
-  <si>
-    <t>01/30/2023</t>
-  </si>
-  <si>
-    <t>02/17/2023</t>
-  </si>
-  <si>
-    <t>02/24/2023</t>
-  </si>
-  <si>
-    <t>02/22/2023</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>02/01/2023</t>
-  </si>
-  <si>
-    <t>DISANZA</t>
-  </si>
-  <si>
-    <t>CHRISTINA</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>90.42</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,266 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EOBReceiveFeesFromCigna/faillist.xlsx
+++ b/EOBReceiveFeesFromCigna/faillist.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>Cigna</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +357,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>